--- a/biology/Zoologie/Cynipidae/Cynipidae.xlsx
+++ b/biology/Zoologie/Cynipidae/Cynipidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cynipidae, aussi appelés « guêpes à galles » ou « mouche à galles », sont une famille de l'ordre des hyménoptères et appartiennent au sous-ordre des apocrites dans la super-famille des Cynipoidea. Environ 1 300 espèces de ces très petits insectes (1-8 millimètres) sont connues dans le monde, avec environ 360 espèces de 36 genres différents en Europe et quelque 800 espèces en Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les Apocrita, les guêpes gallicoles présentent une constriction entre le premier et le second segment de l'abdomen, la célèbre taille de guêpe. 
 </t>
@@ -542,7 +556,9 @@
           <t>Reproduction et développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cycle de reproduction des Cynipidae présente une alternance entre une ou plusieurs générations sexuée et aséxuée (par parthénogénèse). 
 Les larves de la plupart des guêpes gallicoles se développent au sein de galles caractéristiques.
@@ -575,7 +591,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plus connues des guêpes gallicoles sont celles provoquant les différents types de galles du chêne (Cynips quercusfolii, Biorhiza pallida, Andricus kollari, Andricus dentimitratus, etc), qui provoquent une galle plus ou moins sphérique, de taille variable, sous les feuilles ou sur les rameaux de chênes.
 			Andricus fecundatrix Génération de galle par parthénogenèse
@@ -613,9 +631,11 @@
           <t>Ensemble des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (09 mars 2019)[1], GBIF       (09 mars 2019)[2] et Bug Guide[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (09 mars 2019), GBIF       (09 mars 2019) et Bug Guide :
 Acraspis
 Amphibolips
 Andricus
@@ -726,9 +746,11 @@
           <t>Sous-familles et genres européens</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (02 mars 2019)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (02 mars 2019) :
 Sous-famille Aylacini
 Aulacidea
 Aylax
